--- a/WBS.xlsx
+++ b/WBS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\AWS構築演習\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\AWS構築演習\AWS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05459A03-E4A5-419A-B59E-A1E59201603D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7713B88E-36A2-4BEB-8419-C79419307717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{70E36F03-79F9-4627-9B7F-4D392AB0EF88}"/>
   </bookViews>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -961,7 +970,7 @@
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M14" sqref="M14"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -1291,7 +1300,9 @@
         <f t="shared" si="0"/>
         <v>オンスケ</v>
       </c>
-      <c r="G10" s="14"/>
+      <c r="G10" s="14">
+        <v>0.9</v>
+      </c>
       <c r="H10" s="9">
         <v>0.06</v>
       </c>
@@ -1393,7 +1404,9 @@
         <f t="shared" si="0"/>
         <v>オンスケ</v>
       </c>
-      <c r="G13" s="14"/>
+      <c r="G13" s="14">
+        <v>0.4</v>
+      </c>
       <c r="H13" s="9">
         <v>0.37</v>
       </c>

--- a/WBS.xlsx
+++ b/WBS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\AWS構築演習\AWS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7713B88E-36A2-4BEB-8419-C79419307717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AFA1AD-2C76-4AAD-9089-F1A1C44C7389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{70E36F03-79F9-4627-9B7F-4D392AB0EF88}"/>
   </bookViews>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
   <si>
     <t>AWS構築演習</t>
     <rPh sb="3" eb="7">
@@ -284,20 +275,6 @@
     <t>未着手</t>
     <rPh sb="0" eb="3">
       <t>ミチャクシュ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>着手中</t>
-    <rPh sb="0" eb="3">
-      <t>チャクシュチュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>タスク状況</t>
-    <rPh sb="3" eb="5">
-      <t>ジョウキョウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -416,7 +393,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,6 +418,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -548,7 +531,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -594,6 +577,9 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -617,6 +603,9 @@
     </xf>
     <xf numFmtId="14" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -964,13 +953,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0519DC03-FF6C-4AD7-98A8-0CB72A95123B}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -979,83 +968,79 @@
     <col min="2" max="2" width="5.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="1"/>
-    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10" style="2" customWidth="1"/>
-    <col min="14" max="14" width="21.6640625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.6640625" style="1"/>
+    <col min="5" max="5" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="1"/>
+    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="2" customWidth="1"/>
+    <col min="13" max="13" width="21.6640625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="17" t="s">
+      <c r="K2" s="22"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="20" t="s">
+      <c r="I3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>56</v>
+      <c r="K3" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>53</v>
+      </c>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="8" t="s">
         <v>30</v>
       </c>
@@ -1063,39 +1048,35 @@
         <v>6</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="9" t="str">
-        <f>IF(OR(I4&lt;L4,J4&lt;M4), "遅延", "オンスケ")</f>
-        <v>オンスケ</v>
-      </c>
-      <c r="G4" s="14">
+      <c r="F4" s="14">
         <v>1</v>
       </c>
-      <c r="H4" s="9">
+      <c r="G4" s="9">
         <v>0.5</v>
+      </c>
+      <c r="H4" s="10">
+        <v>45498</v>
       </c>
       <c r="I4" s="10">
         <v>45498</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="9">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K4" s="10">
         <v>45498</v>
-      </c>
-      <c r="K4" s="9">
-        <v>0.56000000000000005</v>
       </c>
       <c r="L4" s="10">
         <v>45498</v>
       </c>
-      <c r="M4" s="10">
-        <v>45498</v>
-      </c>
-      <c r="N4" s="9"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="8" t="s">
         <v>31</v>
       </c>
@@ -1104,36 +1085,32 @@
         <v>7</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="9" t="str">
-        <f>IF(OR(I5&lt;L5,J5&lt;M5), "遅延", "オンスケ")</f>
-        <v>オンスケ</v>
-      </c>
-      <c r="G5" s="14">
+        <v>58</v>
+      </c>
+      <c r="F5" s="14">
         <v>1</v>
       </c>
-      <c r="H5" s="9">
+      <c r="G5" s="9">
         <v>0.06</v>
       </c>
+      <c r="H5" s="10">
+        <v>45499</v>
+      </c>
       <c r="I5" s="10">
         <v>45499</v>
       </c>
-      <c r="J5" s="10">
-        <v>45499</v>
-      </c>
-      <c r="K5" s="9">
+      <c r="J5" s="9">
         <v>0.06</v>
       </c>
+      <c r="K5" s="10">
+        <v>45498</v>
+      </c>
       <c r="L5" s="10">
-        <v>45498</v>
-      </c>
-      <c r="M5" s="10">
-        <v>45499</v>
-      </c>
-      <c r="N5" s="9"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>45499</v>
+      </c>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="8" t="s">
         <v>32</v>
       </c>
@@ -1142,36 +1119,32 @@
         <v>9</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="9" t="str">
-        <f t="shared" ref="F6:F15" si="0">IF(OR(I6&lt;L6,J6&lt;M6), "遅延", "オンスケ")</f>
-        <v>オンスケ</v>
-      </c>
-      <c r="G6" s="14">
+        <v>58</v>
+      </c>
+      <c r="F6" s="14">
         <v>1</v>
       </c>
-      <c r="H6" s="9">
+      <c r="G6" s="9">
         <v>0.06</v>
       </c>
+      <c r="H6" s="10">
+        <v>45499</v>
+      </c>
       <c r="I6" s="10">
         <v>45499</v>
       </c>
-      <c r="J6" s="10">
-        <v>45499</v>
-      </c>
-      <c r="K6" s="9">
+      <c r="J6" s="9">
         <v>0.06</v>
       </c>
+      <c r="K6" s="10">
+        <v>45499</v>
+      </c>
       <c r="L6" s="10">
         <v>45499</v>
       </c>
-      <c r="M6" s="10">
-        <v>45499</v>
-      </c>
-      <c r="N6" s="9"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="8" t="s">
         <v>33</v>
       </c>
@@ -1180,36 +1153,32 @@
         <v>8</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>オンスケ</v>
-      </c>
-      <c r="G7" s="14">
+        <v>58</v>
+      </c>
+      <c r="F7" s="14">
         <v>1</v>
       </c>
-      <c r="H7" s="9">
+      <c r="G7" s="9">
         <v>0.06</v>
       </c>
+      <c r="H7" s="10">
+        <v>45499</v>
+      </c>
       <c r="I7" s="10">
         <v>45499</v>
       </c>
-      <c r="J7" s="10">
-        <v>45499</v>
-      </c>
-      <c r="K7" s="9">
+      <c r="J7" s="9">
         <v>0.06</v>
       </c>
+      <c r="K7" s="10">
+        <v>45499</v>
+      </c>
       <c r="L7" s="10">
         <v>45499</v>
       </c>
-      <c r="M7" s="10">
-        <v>45499</v>
-      </c>
-      <c r="N7" s="9"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="8" t="s">
         <v>34</v>
       </c>
@@ -1218,36 +1187,32 @@
         <v>10</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>オンスケ</v>
-      </c>
-      <c r="G8" s="14">
+        <v>58</v>
+      </c>
+      <c r="F8" s="14">
         <v>1</v>
       </c>
-      <c r="H8" s="9">
+      <c r="G8" s="9">
         <v>0.06</v>
       </c>
+      <c r="H8" s="10">
+        <v>45499</v>
+      </c>
       <c r="I8" s="10">
         <v>45499</v>
       </c>
-      <c r="J8" s="10">
-        <v>45499</v>
-      </c>
-      <c r="K8" s="9">
+      <c r="J8" s="9">
         <v>0.06</v>
       </c>
+      <c r="K8" s="10">
+        <v>45499</v>
+      </c>
       <c r="L8" s="10">
         <v>45499</v>
       </c>
-      <c r="M8" s="10">
-        <v>45499</v>
-      </c>
-      <c r="N8" s="9"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="8" t="s">
         <v>35</v>
       </c>
@@ -1256,70 +1221,66 @@
         <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>オンスケ</v>
-      </c>
-      <c r="G9" s="14">
+        <v>58</v>
+      </c>
+      <c r="F9" s="14">
         <v>1</v>
       </c>
-      <c r="H9" s="9">
+      <c r="G9" s="9">
         <v>0.06</v>
       </c>
+      <c r="H9" s="10">
+        <v>45499</v>
+      </c>
       <c r="I9" s="10">
         <v>45499</v>
       </c>
-      <c r="J9" s="10">
-        <v>45499</v>
-      </c>
-      <c r="K9" s="9">
+      <c r="J9" s="9">
         <v>0.06</v>
       </c>
+      <c r="K9" s="10">
+        <v>45499</v>
+      </c>
       <c r="L9" s="10">
         <v>45499</v>
       </c>
-      <c r="M9" s="10">
-        <v>45499</v>
-      </c>
-      <c r="N9" s="9"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>オンスケ</v>
-      </c>
-      <c r="G10" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="H10" s="9">
+        <v>58</v>
+      </c>
+      <c r="F10" s="14">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9">
         <v>0.06</v>
       </c>
+      <c r="H10" s="10">
+        <v>45499</v>
+      </c>
       <c r="I10" s="10">
         <v>45499</v>
       </c>
-      <c r="J10" s="10">
-        <v>45499</v>
-      </c>
-      <c r="K10" s="9"/>
+      <c r="J10" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="K10" s="10">
+        <v>45499</v>
+      </c>
       <c r="L10" s="10">
-        <v>45499</v>
-      </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>45538</v>
+      </c>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="8" t="s">
         <v>36</v>
       </c>
@@ -1330,36 +1291,32 @@
         <v>15</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>オンスケ</v>
-      </c>
-      <c r="G11" s="14">
+        <v>58</v>
+      </c>
+      <c r="F11" s="14">
         <v>1</v>
       </c>
-      <c r="H11" s="9">
+      <c r="G11" s="9">
         <v>0.5</v>
+      </c>
+      <c r="H11" s="10">
+        <v>45498</v>
       </c>
       <c r="I11" s="10">
         <v>45498</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="9">
+        <v>0.43</v>
+      </c>
+      <c r="K11" s="10">
         <v>45498</v>
-      </c>
-      <c r="K11" s="9">
-        <v>0.43</v>
       </c>
       <c r="L11" s="10">
         <v>45498</v>
       </c>
-      <c r="M11" s="10">
-        <v>45498</v>
-      </c>
-      <c r="N11" s="9"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="8" t="s">
         <v>37</v>
       </c>
@@ -1370,26 +1327,22 @@
       <c r="E12" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>オンスケ</v>
-      </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="9">
+      <c r="F12" s="14"/>
+      <c r="G12" s="9">
         <v>0.12</v>
       </c>
+      <c r="H12" s="15">
+        <v>45539</v>
+      </c>
       <c r="I12" s="10">
-        <v>45503</v>
-      </c>
-      <c r="J12" s="10">
-        <v>45503</v>
-      </c>
-      <c r="K12" s="9"/>
+        <v>45539</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="10"/>
       <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="9"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="8" t="s">
         <v>38</v>
       </c>
@@ -1398,32 +1351,32 @@
         <v>17</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>オンスケ</v>
-      </c>
-      <c r="G13" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0.37</v>
+        <v>58</v>
+      </c>
+      <c r="F13" s="14">
+        <v>1</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0.43</v>
+      </c>
+      <c r="H13" s="24">
+        <v>45503</v>
       </c>
       <c r="I13" s="10">
-        <v>45503</v>
-      </c>
-      <c r="J13" s="10">
-        <v>45503</v>
-      </c>
-      <c r="K13" s="9"/>
+        <v>45540</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0.62</v>
+      </c>
+      <c r="K13" s="10">
+        <v>45499</v>
+      </c>
       <c r="L13" s="10">
-        <v>45499</v>
-      </c>
-      <c r="M13" s="10"/>
-      <c r="N13" s="9"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>45539</v>
+      </c>
+      <c r="M13" s="9"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="8" t="s">
         <v>39</v>
       </c>
@@ -1434,26 +1387,22 @@
       <c r="E14" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>オンスケ</v>
-      </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="9">
+      <c r="F14" s="14"/>
+      <c r="G14" s="9">
         <v>0.25</v>
       </c>
+      <c r="H14" s="10">
+        <v>45540</v>
+      </c>
       <c r="I14" s="10">
-        <v>45504</v>
-      </c>
-      <c r="J14" s="10">
-        <v>45504</v>
-      </c>
-      <c r="K14" s="9"/>
+        <v>45540</v>
+      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="10"/>
       <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="9"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="8" t="s">
         <v>40</v>
       </c>
@@ -1464,26 +1413,22 @@
       <c r="E15" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>オンスケ</v>
-      </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="9">
+      <c r="F15" s="14"/>
+      <c r="G15" s="9">
         <v>0.62</v>
       </c>
+      <c r="H15" s="10">
+        <v>45499</v>
+      </c>
       <c r="I15" s="10">
-        <v>45499</v>
-      </c>
-      <c r="J15" s="10">
-        <v>45504</v>
-      </c>
-      <c r="K15" s="9"/>
+        <v>45540</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="10"/>
       <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="9"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="M15" s="9"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="8" t="s">
         <v>41</v>
       </c>
@@ -1496,26 +1441,22 @@
       <c r="E16" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="9" t="str">
-        <f>IF(OR(I16&lt;L16,J16&lt;M16), "遅延", "オンスケ")</f>
-        <v>オンスケ</v>
-      </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="9">
+      <c r="F16" s="14"/>
+      <c r="G16" s="9">
         <v>0.37</v>
       </c>
+      <c r="H16" s="15">
+        <v>45539</v>
+      </c>
       <c r="I16" s="10">
-        <v>45503</v>
-      </c>
-      <c r="J16" s="10">
-        <v>45503</v>
-      </c>
-      <c r="K16" s="9"/>
+        <v>45539</v>
+      </c>
+      <c r="J16" s="9"/>
+      <c r="K16" s="10"/>
       <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="9"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="M16" s="9"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="8" t="s">
         <v>42</v>
       </c>
@@ -1528,26 +1469,22 @@
       <c r="E17" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="9" t="str">
-        <f t="shared" ref="F17:F22" si="1">IF(OR(I17&lt;L17,J17&lt;M17), "遅延", "オンスケ")</f>
-        <v>オンスケ</v>
-      </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="9">
+      <c r="F17" s="14"/>
+      <c r="G17" s="9">
         <v>0.5</v>
       </c>
+      <c r="H17" s="15">
+        <v>45539</v>
+      </c>
       <c r="I17" s="10">
-        <v>45503</v>
-      </c>
-      <c r="J17" s="10">
-        <v>45503</v>
-      </c>
-      <c r="K17" s="9"/>
+        <v>45539</v>
+      </c>
+      <c r="J17" s="9"/>
+      <c r="K17" s="10"/>
       <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="9"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="M17" s="9"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="8" t="s">
         <v>43</v>
       </c>
@@ -1560,26 +1497,22 @@
       <c r="E18" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>オンスケ</v>
-      </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="9">
+      <c r="F18" s="14"/>
+      <c r="G18" s="9">
         <v>0.5</v>
       </c>
+      <c r="H18" s="10">
+        <v>45540</v>
+      </c>
       <c r="I18" s="10">
-        <v>45504</v>
-      </c>
-      <c r="J18" s="10">
-        <v>45504</v>
-      </c>
-      <c r="K18" s="9"/>
+        <v>45540</v>
+      </c>
+      <c r="J18" s="9"/>
+      <c r="K18" s="10"/>
       <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="9"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="M18" s="9"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="8" t="s">
         <v>44</v>
       </c>
@@ -1590,26 +1523,22 @@
       <c r="E19" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>オンスケ</v>
-      </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="9">
+      <c r="F19" s="14"/>
+      <c r="G19" s="9">
         <v>0.5</v>
       </c>
+      <c r="H19" s="10">
+        <v>45540</v>
+      </c>
       <c r="I19" s="10">
-        <v>45504</v>
-      </c>
-      <c r="J19" s="10">
-        <v>45504</v>
-      </c>
-      <c r="K19" s="9"/>
+        <v>45540</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="10"/>
       <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="9"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="M19" s="9"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="8" t="s">
         <v>45</v>
       </c>
@@ -1622,26 +1551,22 @@
       <c r="E20" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>オンスケ</v>
-      </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="9">
+      <c r="F20" s="14"/>
+      <c r="G20" s="9">
         <v>0.12</v>
       </c>
+      <c r="H20" s="10">
+        <v>45541</v>
+      </c>
       <c r="I20" s="10">
-        <v>45505</v>
-      </c>
-      <c r="J20" s="10">
-        <v>45505</v>
-      </c>
-      <c r="K20" s="9"/>
+        <v>45541</v>
+      </c>
+      <c r="J20" s="9"/>
+      <c r="K20" s="10"/>
       <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="9"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="M20" s="9"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="8" t="s">
         <v>47</v>
       </c>
@@ -1649,31 +1574,27 @@
         <v>28</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>オンスケ</v>
-      </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="9">
+      <c r="F21" s="14"/>
+      <c r="G21" s="9">
         <v>1</v>
       </c>
+      <c r="H21" s="10">
+        <v>45541</v>
+      </c>
       <c r="I21" s="10">
-        <v>45505</v>
-      </c>
-      <c r="J21" s="10">
-        <v>45506</v>
-      </c>
-      <c r="K21" s="9"/>
+        <v>45544</v>
+      </c>
+      <c r="J21" s="9"/>
+      <c r="K21" s="10"/>
       <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="9"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="M21" s="9"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="8" t="s">
         <v>48</v>
       </c>
@@ -1684,63 +1605,57 @@
       <c r="E22" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>オンスケ</v>
-      </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="9">
+      <c r="F22" s="14"/>
+      <c r="G22" s="9">
         <v>1</v>
       </c>
+      <c r="H22" s="10">
+        <v>45541</v>
+      </c>
       <c r="I22" s="10">
-        <v>45505</v>
-      </c>
-      <c r="J22" s="10">
-        <v>45506</v>
-      </c>
-      <c r="K22" s="9"/>
+        <v>45544</v>
+      </c>
+      <c r="J22" s="9"/>
+      <c r="K22" s="10"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="9"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="M22" s="9"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="9"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10"/>
       <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="10"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="9"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="H24" s="1">
-        <f>SUM(H4:H23)</f>
-        <v>6.7100000000000009</v>
-      </c>
-      <c r="K24" s="1">
-        <f>SUM(K4:K23)</f>
-        <v>1.2900000000000003</v>
+      <c r="M23" s="9"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="G24" s="1">
+        <f>SUM(G4:G23)</f>
+        <v>6.7700000000000005</v>
+      </c>
+      <c r="J24" s="1">
+        <f>SUM(J4:J23)</f>
+        <v>2.16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
+  <mergeCells count="7">
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="E1:G2 E4:G1048576">
+  <conditionalFormatting sqref="E1:F2 E4:F1048576">
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",E1)))</formula>
     </cfRule>
@@ -1748,7 +1663,7 @@
       <formula>NOT(ISERROR(SEARCH("着手中",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:G2 F4:G1048576">
+  <conditionalFormatting sqref="F1:F2 F4:F1048576">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="遅延">
       <formula>NOT(ISERROR(SEARCH("遅延",F1)))</formula>
     </cfRule>

--- a/WBS.xlsx
+++ b/WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\AWS構築演習\AWS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AFA1AD-2C76-4AAD-9089-F1A1C44C7389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF3C004-A1CB-4F4E-93E5-F81D890622C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{70E36F03-79F9-4627-9B7F-4D392AB0EF88}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
   <si>
     <t>AWS構築演習</t>
     <rPh sb="3" eb="7">
@@ -279,6 +279,13 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>着手中</t>
+    <rPh sb="0" eb="3">
+      <t>チャクシュチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>予定</t>
     <rPh sb="0" eb="2">
       <t>ヨテイ</t>
@@ -344,6 +351,16 @@
     <t>完了</t>
     <rPh sb="0" eb="2">
       <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>着手中</t>
+    <rPh sb="0" eb="2">
+      <t>チャクシュ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -393,7 +410,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -418,12 +435,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -531,7 +542,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -575,9 +586,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -956,10 +964,10 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -985,58 +993,58 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="21" t="s">
+      <c r="G2" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="23"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="21"/>
+      <c r="L2" s="22"/>
       <c r="M2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="L3" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M3" s="3"/>
     </row>
@@ -1048,10 +1056,10 @@
         <v>6</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F4" s="14">
         <v>1</v>
@@ -1085,7 +1093,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F5" s="14">
         <v>1</v>
@@ -1119,7 +1127,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F6" s="14">
         <v>1</v>
@@ -1153,7 +1161,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F7" s="14">
         <v>1</v>
@@ -1187,7 +1195,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F8" s="14">
         <v>1</v>
@@ -1221,7 +1229,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" s="14">
         <v>1</v>
@@ -1248,14 +1256,14 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" s="14">
         <v>1</v>
@@ -1291,7 +1299,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="14">
         <v>1</v>
@@ -1325,21 +1333,29 @@
         <v>16</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="14"/>
+        <v>59</v>
+      </c>
+      <c r="F12" s="14">
+        <v>1</v>
+      </c>
       <c r="G12" s="9">
         <v>0.12</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="23">
         <v>45539</v>
       </c>
       <c r="I12" s="10">
         <v>45539</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
+      <c r="J12" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="K12" s="10">
+        <v>45539</v>
+      </c>
+      <c r="L12" s="10">
+        <v>45539</v>
+      </c>
       <c r="M12" s="9"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1351,7 +1367,7 @@
         <v>17</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F13" s="14">
         <v>1</v>
@@ -1359,7 +1375,7 @@
       <c r="G13" s="9">
         <v>0.43</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="23">
         <v>45503</v>
       </c>
       <c r="I13" s="10">
@@ -1411,7 +1427,7 @@
         <v>19</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="9">
@@ -1439,13 +1455,13 @@
         <v>22</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="9">
         <v>0.37</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="23">
         <v>45539</v>
       </c>
       <c r="I16" s="10">
@@ -1473,7 +1489,7 @@
       <c r="G17" s="9">
         <v>0.5</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="23">
         <v>45539</v>
       </c>
       <c r="I17" s="10">
@@ -1574,7 +1590,7 @@
         <v>28</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>49</v>
@@ -1641,7 +1657,7 @@
       </c>
       <c r="J24" s="1">
         <f>SUM(J4:J23)</f>
-        <v>2.16</v>
+        <v>2.2200000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/WBS.xlsx
+++ b/WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\AWS構築演習\AWS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF3C004-A1CB-4F4E-93E5-F81D890622C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79847030-B84A-4E9A-B060-09B2F33B73E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{70E36F03-79F9-4627-9B7F-4D392AB0EF88}"/>
   </bookViews>
@@ -542,7 +542,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -611,9 +611,6 @@
     </xf>
     <xf numFmtId="14" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -964,10 +961,10 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -1341,7 +1338,7 @@
       <c r="G12" s="9">
         <v>0.12</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="10">
         <v>45539</v>
       </c>
       <c r="I12" s="10">
@@ -1375,7 +1372,7 @@
       <c r="G13" s="9">
         <v>0.43</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="10">
         <v>45503</v>
       </c>
       <c r="I13" s="10">
@@ -1408,10 +1405,10 @@
         <v>0.25</v>
       </c>
       <c r="H14" s="10">
-        <v>45540</v>
+        <v>45541</v>
       </c>
       <c r="I14" s="10">
-        <v>45540</v>
+        <v>45541</v>
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="10"/>
@@ -1461,14 +1458,16 @@
       <c r="G16" s="9">
         <v>0.37</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="10">
+        <v>45540</v>
+      </c>
+      <c r="I16" s="10">
+        <v>45540</v>
+      </c>
+      <c r="J16" s="9"/>
+      <c r="K16" s="10">
         <v>45539</v>
       </c>
-      <c r="I16" s="10">
-        <v>45539</v>
-      </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="9"/>
     </row>
@@ -1483,21 +1482,27 @@
         <v>27</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="9">
         <v>0.5</v>
       </c>
-      <c r="H17" s="23">
-        <v>45539</v>
+      <c r="H17" s="10">
+        <v>45540</v>
       </c>
       <c r="I17" s="10">
-        <v>45539</v>
-      </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
+        <v>45540</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="K17" s="10">
+        <v>45540</v>
+      </c>
+      <c r="L17" s="10">
+        <v>45540</v>
+      </c>
       <c r="M17" s="9"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.55000000000000004">
@@ -1518,10 +1523,10 @@
         <v>0.5</v>
       </c>
       <c r="H18" s="10">
-        <v>45540</v>
+        <v>45544</v>
       </c>
       <c r="I18" s="10">
-        <v>45540</v>
+        <v>45544</v>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="10"/>
@@ -1544,10 +1549,10 @@
         <v>0.5</v>
       </c>
       <c r="H19" s="10">
-        <v>45540</v>
+        <v>45544</v>
       </c>
       <c r="I19" s="10">
-        <v>45540</v>
+        <v>45544</v>
       </c>
       <c r="J19" s="9"/>
       <c r="K19" s="10"/>
@@ -1572,10 +1577,10 @@
         <v>0.12</v>
       </c>
       <c r="H20" s="10">
-        <v>45541</v>
+        <v>45545</v>
       </c>
       <c r="I20" s="10">
-        <v>45541</v>
+        <v>45545</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="10"/>
@@ -1600,10 +1605,10 @@
         <v>1</v>
       </c>
       <c r="H21" s="10">
-        <v>45541</v>
+        <v>45545</v>
       </c>
       <c r="I21" s="10">
-        <v>45544</v>
+        <v>45546</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="10"/>
@@ -1626,10 +1631,10 @@
         <v>1</v>
       </c>
       <c r="H22" s="10">
-        <v>45541</v>
+        <v>45545</v>
       </c>
       <c r="I22" s="10">
-        <v>45544</v>
+        <v>45546</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="10"/>
@@ -1657,7 +1662,7 @@
       </c>
       <c r="J24" s="1">
         <f>SUM(J4:J23)</f>
-        <v>2.2200000000000002</v>
+        <v>2.72</v>
       </c>
     </row>
   </sheetData>

--- a/WBS.xlsx
+++ b/WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\AWS構築演習\AWS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79847030-B84A-4E9A-B060-09B2F33B73E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FCB546-3976-432F-B07F-550D0C751BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{70E36F03-79F9-4627-9B7F-4D392AB0EF88}"/>
   </bookViews>
@@ -27,13 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
   <si>
-    <t>AWS構築演習</t>
-    <rPh sb="3" eb="7">
-      <t>コウチクエンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ステータス</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -361,6 +354,13 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【AWS構築演習】WBS</t>
+    <rPh sb="4" eb="8">
+      <t>コウチクエンシュウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -369,7 +369,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,6 +403,15 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -542,7 +551,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -586,6 +595,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -958,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0519DC03-FF6C-4AD7-98A8-0CB72A95123B}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -984,147 +996,114 @@
     <col min="14" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="10" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="2" spans="1:13" ht="20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="15" t="s">
+      <c r="F3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="22"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="20" t="s">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J4" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" s="7" t="s">
+      <c r="K4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="14">
-        <v>1</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="H4" s="10">
-        <v>45498</v>
-      </c>
-      <c r="I4" s="10">
-        <v>45498</v>
-      </c>
-      <c r="J4" s="9">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="K4" s="10">
-        <v>45498</v>
-      </c>
-      <c r="L4" s="10">
-        <v>45498</v>
-      </c>
-      <c r="M4" s="9"/>
+      <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="12"/>
+        <v>29</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="D5" s="9" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" s="14">
         <v>1</v>
       </c>
       <c r="G5" s="9">
-        <v>0.06</v>
+        <v>0.5</v>
       </c>
       <c r="H5" s="10">
-        <v>45499</v>
+        <v>45498</v>
       </c>
       <c r="I5" s="10">
-        <v>45499</v>
+        <v>45498</v>
       </c>
       <c r="J5" s="9">
-        <v>0.06</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K5" s="10">
         <v>45498</v>
       </c>
       <c r="L5" s="10">
-        <v>45499</v>
+        <v>45498</v>
       </c>
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" s="14">
         <v>1</v>
@@ -1142,7 +1121,7 @@
         <v>0.06</v>
       </c>
       <c r="K6" s="10">
-        <v>45499</v>
+        <v>45498</v>
       </c>
       <c r="L6" s="10">
         <v>45499</v>
@@ -1151,14 +1130,14 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" s="14">
         <v>1</v>
@@ -1185,14 +1164,14 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8" s="14">
         <v>1</v>
@@ -1219,14 +1198,14 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="14">
         <v>1</v>
@@ -1253,14 +1232,14 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="13"/>
+        <v>34</v>
+      </c>
+      <c r="C10" s="12"/>
       <c r="D10" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F10" s="14">
         <v>1</v>
@@ -1275,114 +1254,114 @@
         <v>45499</v>
       </c>
       <c r="J10" s="9">
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
       <c r="K10" s="10">
         <v>45499</v>
       </c>
       <c r="L10" s="10">
-        <v>45538</v>
+        <v>45499</v>
       </c>
       <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>14</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C11" s="13"/>
       <c r="D11" s="9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F11" s="14">
         <v>1</v>
       </c>
       <c r="G11" s="9">
-        <v>0.5</v>
+        <v>0.06</v>
       </c>
       <c r="H11" s="10">
-        <v>45498</v>
+        <v>45499</v>
       </c>
       <c r="I11" s="10">
-        <v>45498</v>
+        <v>45499</v>
       </c>
       <c r="J11" s="9">
-        <v>0.43</v>
+        <v>0.25</v>
       </c>
       <c r="K11" s="10">
-        <v>45498</v>
+        <v>45499</v>
       </c>
       <c r="L11" s="10">
-        <v>45498</v>
+        <v>45538</v>
       </c>
       <c r="M11" s="9"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="12"/>
+        <v>35</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="D12" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F12" s="14">
         <v>1</v>
       </c>
       <c r="G12" s="9">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="H12" s="10">
-        <v>45539</v>
+        <v>45498</v>
       </c>
       <c r="I12" s="10">
-        <v>45539</v>
+        <v>45498</v>
       </c>
       <c r="J12" s="9">
-        <v>0.06</v>
+        <v>0.43</v>
       </c>
       <c r="K12" s="10">
-        <v>45539</v>
+        <v>45498</v>
       </c>
       <c r="L12" s="10">
-        <v>45539</v>
+        <v>45498</v>
       </c>
       <c r="M12" s="9"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F13" s="14">
         <v>1</v>
       </c>
       <c r="G13" s="9">
-        <v>0.43</v>
+        <v>0.12</v>
       </c>
       <c r="H13" s="10">
-        <v>45503</v>
+        <v>45539</v>
       </c>
       <c r="I13" s="10">
-        <v>45540</v>
+        <v>45539</v>
       </c>
       <c r="J13" s="9">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="K13" s="10">
-        <v>45499</v>
+        <v>45539</v>
       </c>
       <c r="L13" s="10">
         <v>45539</v>
@@ -1391,50 +1370,58 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="14"/>
+        <v>58</v>
+      </c>
+      <c r="F14" s="14">
+        <v>1</v>
+      </c>
       <c r="G14" s="9">
-        <v>0.25</v>
+        <v>0.43</v>
       </c>
       <c r="H14" s="10">
-        <v>45541</v>
+        <v>45503</v>
       </c>
       <c r="I14" s="10">
-        <v>45541</v>
-      </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
+        <v>45540</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0.62</v>
+      </c>
+      <c r="K14" s="10">
+        <v>45499</v>
+      </c>
+      <c r="L14" s="10">
+        <v>45539</v>
+      </c>
       <c r="M14" s="9"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="13"/>
+        <v>38</v>
+      </c>
+      <c r="C15" s="12"/>
       <c r="D15" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="9">
-        <v>0.62</v>
+        <v>0.25</v>
       </c>
       <c r="H15" s="10">
-        <v>45499</v>
+        <v>45541</v>
       </c>
       <c r="I15" s="10">
-        <v>45540</v>
+        <v>45541</v>
       </c>
       <c r="J15" s="9"/>
       <c r="K15" s="10"/>
@@ -1443,50 +1430,46 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>20</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C16" s="13"/>
       <c r="D16" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="9">
-        <v>0.37</v>
+        <v>0.62</v>
       </c>
       <c r="H16" s="10">
-        <v>45540</v>
+        <v>45499</v>
       </c>
       <c r="I16" s="10">
         <v>45540</v>
       </c>
       <c r="J16" s="9"/>
-      <c r="K16" s="10">
-        <v>45539</v>
-      </c>
+      <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="9"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>59</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="9">
-        <v>0.5</v>
+        <v>0.37</v>
       </c>
       <c r="H17" s="10">
         <v>45540</v>
@@ -1494,55 +1477,59 @@
       <c r="I17" s="10">
         <v>45540</v>
       </c>
-      <c r="J17" s="9">
-        <v>0.5</v>
-      </c>
+      <c r="J17" s="9"/>
       <c r="K17" s="10">
-        <v>45540</v>
-      </c>
-      <c r="L17" s="10">
-        <v>45540</v>
-      </c>
+        <v>45539</v>
+      </c>
+      <c r="L17" s="10"/>
       <c r="M17" s="9"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>24</v>
+        <v>41</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="9">
         <v>0.5</v>
       </c>
       <c r="H18" s="10">
-        <v>45544</v>
+        <v>45540</v>
       </c>
       <c r="I18" s="10">
-        <v>45544</v>
-      </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
+        <v>45540</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="K18" s="10">
+        <v>45540</v>
+      </c>
+      <c r="L18" s="10">
+        <v>45540</v>
+      </c>
       <c r="M18" s="9"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="13"/>
+        <v>42</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="D19" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="9">
@@ -1561,26 +1548,24 @@
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>13</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C20" s="13"/>
       <c r="D20" s="9" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="9">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="H20" s="10">
-        <v>45545</v>
+        <v>45544</v>
       </c>
       <c r="I20" s="10">
-        <v>45545</v>
+        <v>45544</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="10"/>
@@ -1589,26 +1574,26 @@
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>28</v>
+        <v>44</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="9">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="H21" s="10">
         <v>45545</v>
       </c>
       <c r="I21" s="10">
-        <v>45546</v>
+        <v>45545</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="10"/>
@@ -1617,14 +1602,16 @@
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="9">
@@ -1642,51 +1629,77 @@
       <c r="M22" s="9"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+      <c r="B23" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="F23" s="14"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
+      <c r="G23" s="9">
+        <v>1</v>
+      </c>
+      <c r="H23" s="10">
+        <v>45545</v>
+      </c>
+      <c r="I23" s="10">
+        <v>45546</v>
+      </c>
       <c r="J23" s="9"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
       <c r="M23" s="9"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="G24" s="1">
-        <f>SUM(G4:G23)</f>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="9"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="G25" s="1">
+        <f>SUM(G5:G24)</f>
         <v>6.7700000000000005</v>
       </c>
-      <c r="J24" s="1">
-        <f>SUM(J4:J23)</f>
+      <c r="J25" s="1">
+        <f>SUM(J5:J24)</f>
         <v>2.72</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="E1:F2 E4:F1048576">
+  <conditionalFormatting sqref="E2:F3 E5:F1048576">
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="完了">
-      <formula>NOT(ISERROR(SEARCH("完了",E1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("完了",E2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="着手中">
-      <formula>NOT(ISERROR(SEARCH("着手中",E1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("着手中",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F2 F4:F1048576">
+  <conditionalFormatting sqref="F2:F3 F5:F1048576">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="遅延">
-      <formula>NOT(ISERROR(SEARCH("遅延",F1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("遅延",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WBS.xlsx
+++ b/WBS.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\AWS構築演習\AWS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FCB546-3976-432F-B07F-550D0C751BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD611FEF-F2CE-4D24-BCE5-E94D3348A38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{70E36F03-79F9-4627-9B7F-4D392AB0EF88}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="WBS" sheetId="1" r:id="rId1"/>
+    <sheet name="list" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
   <si>
     <t>ステータス</t>
     <phoneticPr fontId="2"/>
@@ -142,44 +143,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>フロントエンド構築</t>
-    <rPh sb="7" eb="9">
-      <t>コウチク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>バックエンド構築</t>
-    <rPh sb="6" eb="8">
-      <t>コウチク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>機能作成</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データ作成</t>
-    <rPh sb="3" eb="5">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>レイアウト作成</t>
-    <rPh sb="5" eb="7">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>結合テスト</t>
     <rPh sb="0" eb="2">
       <t>ケツゴウ</t>
@@ -241,13 +204,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>05-02</t>
-  </si>
-  <si>
-    <t>06-01</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>動作確認実施</t>
     <rPh sb="0" eb="4">
       <t>ドウサカクニン</t>
@@ -258,13 +214,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>07-01</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>07-02</t>
-  </si>
-  <si>
     <t>未着手</t>
     <rPh sb="0" eb="3">
       <t>ミチャクシュ</t>
@@ -348,20 +297,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>着手中</t>
-    <rPh sb="0" eb="2">
-      <t>チャクシュ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>チュウ</t>
-    </rPh>
+    <t>05-02</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>【AWS構築演習】WBS</t>
-    <rPh sb="4" eb="8">
-      <t>コウチクエンシュウ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -369,7 +309,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,6 +358,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -551,7 +499,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -561,67 +509,73 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -629,7 +583,14 @@
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -970,712 +931,683 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0519DC03-FF6C-4AD7-98A8-0CB72A95123B}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="1.58203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="1"/>
-    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" style="2" customWidth="1"/>
-    <col min="13" max="13" width="21.6640625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="1.58203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="5.58203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.9140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="17" customWidth="1"/>
+    <col min="13" max="13" width="21.6640625" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="10" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="2" spans="1:13" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="15" t="s">
-        <v>60</v>
-      </c>
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="3" t="s">
+      <c r="G3" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="24"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" s="3"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="8" t="s">
-        <v>29</v>
+      <c r="B5" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="14">
-        <v>1</v>
-      </c>
-      <c r="G5" s="9">
+      <c r="D5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="13">
+        <v>1</v>
+      </c>
+      <c r="G5" s="12">
         <v>0.5</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="14">
         <v>45498</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="14">
         <v>45498</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="12">
         <v>0.56000000000000005</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="14">
         <v>45498</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="14">
         <v>45498</v>
       </c>
-      <c r="M5" s="9"/>
+      <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="H6" s="14">
+        <v>45499</v>
+      </c>
+      <c r="I6" s="14">
+        <v>45499</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="K6" s="14">
+        <v>45498</v>
+      </c>
+      <c r="L6" s="14">
+        <v>45499</v>
+      </c>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="H7" s="14">
+        <v>45499</v>
+      </c>
+      <c r="I7" s="14">
+        <v>45499</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="K7" s="14">
+        <v>45499</v>
+      </c>
+      <c r="L7" s="14">
+        <v>45499</v>
+      </c>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="H8" s="14">
+        <v>45499</v>
+      </c>
+      <c r="I8" s="14">
+        <v>45499</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="K8" s="14">
+        <v>45499</v>
+      </c>
+      <c r="L8" s="14">
+        <v>45499</v>
+      </c>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="13">
+        <v>1</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="H9" s="14">
+        <v>45499</v>
+      </c>
+      <c r="I9" s="14">
+        <v>45499</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="K9" s="14">
+        <v>45499</v>
+      </c>
+      <c r="L9" s="14">
+        <v>45499</v>
+      </c>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="13">
+        <v>1</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="H10" s="14">
+        <v>45499</v>
+      </c>
+      <c r="I10" s="14">
+        <v>45499</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="K10" s="14">
+        <v>45499</v>
+      </c>
+      <c r="L10" s="14">
+        <v>45499</v>
+      </c>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="13">
+        <v>1</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="H11" s="14">
+        <v>45499</v>
+      </c>
+      <c r="I11" s="14">
+        <v>45499</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="K11" s="14">
+        <v>45499</v>
+      </c>
+      <c r="L11" s="14">
+        <v>45538</v>
+      </c>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="14">
-        <v>1</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0.06</v>
-      </c>
-      <c r="H6" s="10">
-        <v>45499</v>
-      </c>
-      <c r="I6" s="10">
-        <v>45499</v>
-      </c>
-      <c r="J6" s="9">
-        <v>0.06</v>
-      </c>
-      <c r="K6" s="10">
-        <v>45498</v>
-      </c>
-      <c r="L6" s="10">
-        <v>45499</v>
-      </c>
-      <c r="M6" s="9"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="14">
-        <v>1</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0.06</v>
-      </c>
-      <c r="H7" s="10">
-        <v>45499</v>
-      </c>
-      <c r="I7" s="10">
-        <v>45499</v>
-      </c>
-      <c r="J7" s="9">
-        <v>0.06</v>
-      </c>
-      <c r="K7" s="10">
-        <v>45499</v>
-      </c>
-      <c r="L7" s="10">
-        <v>45499</v>
-      </c>
-      <c r="M7" s="9"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="14">
-        <v>1</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0.06</v>
-      </c>
-      <c r="H8" s="10">
-        <v>45499</v>
-      </c>
-      <c r="I8" s="10">
-        <v>45499</v>
-      </c>
-      <c r="J8" s="9">
-        <v>0.06</v>
-      </c>
-      <c r="K8" s="10">
-        <v>45499</v>
-      </c>
-      <c r="L8" s="10">
-        <v>45499</v>
-      </c>
-      <c r="M8" s="9"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="14">
-        <v>1</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0.06</v>
-      </c>
-      <c r="H9" s="10">
-        <v>45499</v>
-      </c>
-      <c r="I9" s="10">
-        <v>45499</v>
-      </c>
-      <c r="J9" s="9">
-        <v>0.06</v>
-      </c>
-      <c r="K9" s="10">
-        <v>45499</v>
-      </c>
-      <c r="L9" s="10">
-        <v>45499</v>
-      </c>
-      <c r="M9" s="9"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="14">
-        <v>1</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0.06</v>
-      </c>
-      <c r="H10" s="10">
-        <v>45499</v>
-      </c>
-      <c r="I10" s="10">
-        <v>45499</v>
-      </c>
-      <c r="J10" s="9">
-        <v>0.06</v>
-      </c>
-      <c r="K10" s="10">
-        <v>45499</v>
-      </c>
-      <c r="L10" s="10">
-        <v>45499</v>
-      </c>
-      <c r="M10" s="9"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="14">
-        <v>1</v>
-      </c>
-      <c r="G11" s="9">
-        <v>0.06</v>
-      </c>
-      <c r="H11" s="10">
-        <v>45499</v>
-      </c>
-      <c r="I11" s="10">
-        <v>45499</v>
-      </c>
-      <c r="J11" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="K11" s="10">
-        <v>45499</v>
-      </c>
-      <c r="L11" s="10">
-        <v>45538</v>
-      </c>
-      <c r="M11" s="9"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="14">
-        <v>1</v>
-      </c>
-      <c r="G12" s="9">
+      <c r="E12" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="13">
+        <v>1</v>
+      </c>
+      <c r="G12" s="12">
         <v>0.5</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="14">
         <v>45498</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="14">
         <v>45498</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="12">
         <v>0.43</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="14">
         <v>45498</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="14">
         <v>45498</v>
       </c>
-      <c r="M12" s="9"/>
+      <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="H13" s="14">
+        <v>45539</v>
+      </c>
+      <c r="I13" s="14">
+        <v>45539</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="K13" s="14">
+        <v>45539</v>
+      </c>
+      <c r="L13" s="14">
+        <v>45539</v>
+      </c>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="13">
+        <v>1</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0.43</v>
+      </c>
+      <c r="H14" s="14">
+        <v>45503</v>
+      </c>
+      <c r="I14" s="14">
+        <v>45540</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0.62</v>
+      </c>
+      <c r="K14" s="14">
+        <v>45499</v>
+      </c>
+      <c r="L14" s="14">
+        <v>45539</v>
+      </c>
+      <c r="M14" s="12"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="13">
+        <v>1</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="H15" s="14">
+        <v>45541</v>
+      </c>
+      <c r="I15" s="14">
+        <v>45541</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K15" s="14">
+        <v>45541</v>
+      </c>
+      <c r="L15" s="14">
+        <v>45544</v>
+      </c>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="13">
+        <v>1</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0.62</v>
+      </c>
+      <c r="H16" s="14">
+        <v>45499</v>
+      </c>
+      <c r="I16" s="14">
+        <v>45546</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0.62</v>
+      </c>
+      <c r="K16" s="14">
+        <v>45544</v>
+      </c>
+      <c r="L16" s="14">
+        <v>45544</v>
+      </c>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="13">
+        <v>1</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0.37</v>
+      </c>
+      <c r="H17" s="14">
+        <v>45540</v>
+      </c>
+      <c r="I17" s="14">
+        <v>45540</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="K17" s="14">
+        <v>45539</v>
+      </c>
+      <c r="L17" s="14">
+        <v>45541</v>
+      </c>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="14">
-        <v>1</v>
-      </c>
-      <c r="G13" s="9">
+      <c r="C18" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="13">
+        <v>1</v>
+      </c>
+      <c r="G18" s="12">
         <v>0.12</v>
       </c>
-      <c r="H13" s="10">
-        <v>45539</v>
-      </c>
-      <c r="I13" s="10">
-        <v>45539</v>
-      </c>
-      <c r="J13" s="9">
+      <c r="H18" s="14">
+        <v>45545</v>
+      </c>
+      <c r="I18" s="14">
+        <v>45545</v>
+      </c>
+      <c r="J18" s="12">
         <v>0.06</v>
       </c>
-      <c r="K13" s="10">
-        <v>45539</v>
-      </c>
-      <c r="L13" s="10">
-        <v>45539</v>
-      </c>
-      <c r="M13" s="9"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="8" t="s">
+      <c r="K18" s="14">
+        <v>45541</v>
+      </c>
+      <c r="L18" s="14">
+        <v>45544</v>
+      </c>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="14">
-        <v>1</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0.43</v>
-      </c>
-      <c r="H14" s="10">
-        <v>45503</v>
-      </c>
-      <c r="I14" s="10">
-        <v>45540</v>
-      </c>
-      <c r="J14" s="9">
-        <v>0.62</v>
-      </c>
-      <c r="K14" s="10">
-        <v>45499</v>
-      </c>
-      <c r="L14" s="10">
-        <v>45539</v>
-      </c>
-      <c r="M14" s="9"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="C19" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="H15" s="10">
+      <c r="E19" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="13">
+        <v>1</v>
+      </c>
+      <c r="G19" s="12">
+        <v>1</v>
+      </c>
+      <c r="H19" s="14">
+        <v>45545</v>
+      </c>
+      <c r="I19" s="14">
+        <v>45546</v>
+      </c>
+      <c r="J19" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="K19" s="14">
         <v>45541</v>
       </c>
-      <c r="I15" s="10">
-        <v>45541</v>
-      </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="9"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="L19" s="14">
+        <v>45544</v>
+      </c>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="9">
-        <v>0.62</v>
-      </c>
-      <c r="H16" s="10">
-        <v>45499</v>
-      </c>
-      <c r="I16" s="10">
-        <v>45540</v>
-      </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="9"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="9">
-        <v>0.37</v>
-      </c>
-      <c r="H17" s="10">
-        <v>45540</v>
-      </c>
-      <c r="I17" s="10">
-        <v>45540</v>
-      </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="10">
-        <v>45539</v>
-      </c>
-      <c r="L17" s="10"/>
-      <c r="M17" s="9"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="H18" s="10">
-        <v>45540</v>
-      </c>
-      <c r="I18" s="10">
-        <v>45540</v>
-      </c>
-      <c r="J18" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="K18" s="10">
-        <v>45540</v>
-      </c>
-      <c r="L18" s="10">
-        <v>45540</v>
-      </c>
-      <c r="M18" s="9"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="H19" s="10">
+      <c r="F20" s="13">
+        <v>1</v>
+      </c>
+      <c r="G20" s="12">
+        <v>1</v>
+      </c>
+      <c r="H20" s="14">
+        <v>45545</v>
+      </c>
+      <c r="I20" s="14">
+        <v>45546</v>
+      </c>
+      <c r="J20" s="12">
+        <v>0</v>
+      </c>
+      <c r="K20" s="14">
         <v>45544</v>
       </c>
-      <c r="I19" s="10">
+      <c r="L20" s="14">
         <v>45544</v>
       </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="9"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="H20" s="10">
-        <v>45544</v>
-      </c>
-      <c r="I20" s="10">
-        <v>45544</v>
-      </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="9"/>
+      <c r="M20" s="12"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="H21" s="10">
-        <v>45545</v>
-      </c>
-      <c r="I21" s="10">
-        <v>45545</v>
-      </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="12"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="9">
-        <v>1</v>
-      </c>
-      <c r="H22" s="10">
-        <v>45545</v>
-      </c>
-      <c r="I22" s="10">
-        <v>45546</v>
-      </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="9"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="9">
-        <v>1</v>
-      </c>
-      <c r="H23" s="10">
-        <v>45545</v>
-      </c>
-      <c r="I23" s="10">
-        <v>45546</v>
-      </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="9"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="9"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="G25" s="1">
-        <f>SUM(G5:G24)</f>
-        <v>6.7700000000000005</v>
-      </c>
-      <c r="J25" s="1">
-        <f>SUM(J5:J24)</f>
-        <v>2.72</v>
+      <c r="G22" s="4">
+        <f>SUM(G5:G21)</f>
+        <v>5.2700000000000005</v>
+      </c>
+      <c r="J22" s="4">
+        <f>SUM(J5:J21)</f>
+        <v>3.7700000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -1689,19 +1621,62 @@
     <mergeCell ref="E3:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="E2:F3 E5:F1048576">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="完了">
-      <formula>NOT(ISERROR(SEARCH("完了",E2)))</formula>
+  <conditionalFormatting sqref="E3:F3 E5:F1048576">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="完了">
+      <formula>NOT(ISERROR(SEARCH("完了",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="着手中">
-      <formula>NOT(ISERROR(SEARCH("着手中",E2)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="着手中">
+      <formula>NOT(ISERROR(SEARCH("着手中",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F3 F5:F1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="遅延">
-      <formula>NOT(ISERROR(SEARCH("遅延",F2)))</formula>
+  <conditionalFormatting sqref="F3 F5:F1048576">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="遅延">
+      <formula>NOT(ISERROR(SEARCH("遅延",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{534A5339-0DF7-418D-AC2B-8EF59D6C66BE}">
+          <x14:formula1>
+            <xm:f>list!$B$2:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>E5:E20</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3890A527-043F-4AC5-8C6E-129D9C658A98}">
+  <dimension ref="B2:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/WBS.xlsx
+++ b/WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\AWS構築演習\AWS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD611FEF-F2CE-4D24-BCE5-E94D3348A38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AD4202-0A87-424D-8CCE-AB2170FAC4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{70E36F03-79F9-4627-9B7F-4D392AB0EF88}"/>
   </bookViews>
@@ -934,10 +934,10 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
